--- a/analyzer/results/final_immutables.xlsx
+++ b/analyzer/results/final_immutables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ Projects\heap-isolation\analyzer\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F78395F5-397D-49FB-A699-39A663135E4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D2A83D-A7CF-466C-BE0F-1FCD58CC0D06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_immutables" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3319" uniqueCount="1061">
   <si>
     <t>Owner</t>
   </si>
@@ -2993,12 +2993,222 @@
   </si>
   <si>
     <t>MIN_SUPPLEMENTARY_CODE_POINT</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>JAPAN</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>ROOT</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>TRADITIONAL_CHINESE</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>KOREAN</t>
+  </si>
+  <si>
+    <t>ITALIAN</t>
+  </si>
+  <si>
+    <t>GERMAN</t>
+  </si>
+  <si>
+    <t>CHINESE</t>
+  </si>
+  <si>
+    <t>PRC</t>
+  </si>
+  <si>
+    <t>KOREA</t>
+  </si>
+  <si>
+    <t>FRENCH</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>JAPANESE</t>
+  </si>
+  <si>
+    <t>TAIWAN</t>
+  </si>
+  <si>
+    <t>CANADA_FRENCH</t>
+  </si>
+  <si>
+    <t>SIMPLIFIED_CHINESE</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MIDNIGHT</t>
+  </si>
+  <si>
+    <t>NOON</t>
+  </si>
+  <si>
+    <t>EPOCH</t>
+  </si>
+  <si>
+    <t>java.time.format.DecimalStyle</t>
+  </si>
+  <si>
+    <t>java.time.format.DateTimeFormatter</t>
+  </si>
+  <si>
+    <t>ISO_DATE</t>
+  </si>
+  <si>
+    <t>ISO_OFFSET_DATE_TIME</t>
+  </si>
+  <si>
+    <t>ISO_ORDINAL_DATE</t>
+  </si>
+  <si>
+    <t>RFC_1123_DATE_TIME</t>
+  </si>
+  <si>
+    <t>ISO_OFFSET_DATE</t>
+  </si>
+  <si>
+    <t>ISO_ZONED_DATE_TIME</t>
+  </si>
+  <si>
+    <t>ISO_LOCAL_TIME</t>
+  </si>
+  <si>
+    <t>ISO_LOCAL_DATE_TIME</t>
+  </si>
+  <si>
+    <t>ISO_INSTANT</t>
+  </si>
+  <si>
+    <t>BASIC_ISO_DATE</t>
+  </si>
+  <si>
+    <t>ISO_TIME</t>
+  </si>
+  <si>
+    <t>ISO_OFFSET_TIME</t>
+  </si>
+  <si>
+    <t>ISO_LOCAL_DATE</t>
+  </si>
+  <si>
+    <t>ISO_DATE_TIME</t>
+  </si>
+  <si>
+    <t>ISO_WEEK_DATE</t>
+  </si>
+  <si>
+    <t>INSTANCE</t>
+  </si>
+  <si>
+    <t>java.nio.ByteOrder</t>
+  </si>
+  <si>
+    <t>LITTLE_ENDIAN</t>
+  </si>
+  <si>
+    <t>BIG_ENDIAN</t>
+  </si>
+  <si>
+    <t>UNSAFE</t>
+  </si>
+  <si>
+    <t>INVOKER_METHOD_TYPE</t>
+  </si>
+  <si>
+    <t>LONG_OBJ_TYPE</t>
+  </si>
+  <si>
+    <t>OBJ_OBJ_TYPE</t>
+  </si>
+  <si>
+    <t>unsafe</t>
+  </si>
+  <si>
+    <t>java.util.OptionalLong</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
+  </si>
+  <si>
+    <t>java.util.OptionalInt</t>
+  </si>
+  <si>
+    <t>java.util.OptionalDouble</t>
+  </si>
+  <si>
+    <t>java.util.Optional&lt;?&gt;</t>
+  </si>
+  <si>
+    <t>java.util.Optional</t>
+  </si>
+  <si>
+    <t>java.lang.Runtime$Version</t>
+  </si>
+  <si>
+    <t>RUNTIME_VERSION</t>
+  </si>
+  <si>
+    <t>BASE_VERSION</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>java.util.regex.Pattern</t>
+  </si>
+  <si>
+    <t>PATTERN</t>
+  </si>
+  <si>
+    <t>NATIVE_ORDER</t>
+  </si>
+  <si>
+    <t>java.lang.StackWalker</t>
+  </si>
+  <si>
+    <t>DEFAULT_WALKER</t>
+  </si>
+  <si>
+    <t>theUnsafe</t>
+  </si>
+  <si>
+    <t>jdk.internal.misc.SharedSecrets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3832,10 +4042,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1020"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1083" workbookViewId="0">
+      <selection activeCell="A1106" sqref="A1106:C1107"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -15059,6 +15271,963 @@
         <v>22</v>
       </c>
     </row>
+    <row r="1021" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1021" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1022" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>978</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>998</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>997</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>996</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>995</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>994</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>993</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>992</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>991</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>801</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
